--- a/datasets/gss-better-for-man-to-work-woman-tend-home.xlsx
+++ b/datasets/gss-better-for-man-to-work-woman-tend-home.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Documents\job-related\024 - SI ITK\ITK\Courses\AK-201-426-data-science\AY-23-24-even\AK-201-426-data-science\datasets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{3F44C167-B22B-412F-91FD-AD5120501678}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7D4D3DD5-5064-42BD-97E5-9CA80B6A54CF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3000" yWindow="3000" windowWidth="19200" windowHeight="9970" xr2:uid="{FC4824E5-1E0D-4BF6-943F-927E4962986D}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="13900" xr2:uid="{FC4824E5-1E0D-4BF6-943F-927E4962986D}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
   <si>
     <t>.i: Inapplicable</t>
   </si>
@@ -59,12 +59,18 @@
   <si>
     <t>STRONGLY DISAGREE</t>
   </si>
+  <si>
+    <t>Code  </t>
+  </si>
+  <si>
+    <t>Label</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1">
+  <fonts count="3">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -73,16 +79,34 @@
       <charset val="128"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="7"/>
+      <color rgb="FF333333"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="7"/>
+      <color rgb="FF333333"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFEBE8E5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -90,12 +114,39 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color rgb="FFE0E0E0"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" indent="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -413,677 +464,701 @@
   <dimension ref="A1:Y9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+      <selection activeCell="N15" sqref="N15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
   <sheetData>
     <row r="1" spans="1:25">
-      <c r="A1">
+      <c r="A1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C1" s="2">
+        <v>1977</v>
+      </c>
+      <c r="D1" s="2">
+        <v>1985</v>
+      </c>
+      <c r="E1" s="2">
+        <v>1986</v>
+      </c>
+      <c r="F1" s="2">
+        <v>1988</v>
+      </c>
+      <c r="G1" s="2">
+        <v>1989</v>
+      </c>
+      <c r="H1" s="2">
+        <v>1990</v>
+      </c>
+      <c r="I1" s="2">
         <v>1991</v>
       </c>
-      <c r="B1">
+      <c r="J1" s="2">
         <v>1993</v>
       </c>
-      <c r="C1">
+      <c r="K1" s="2">
         <v>1994</v>
       </c>
-      <c r="D1">
+      <c r="L1" s="2">
         <v>1996</v>
       </c>
-      <c r="E1">
+      <c r="M1" s="2">
         <v>1998</v>
       </c>
-      <c r="F1">
+      <c r="N1" s="2">
         <v>2000</v>
       </c>
-      <c r="G1">
+      <c r="O1" s="2">
         <v>2002</v>
       </c>
-      <c r="H1">
+      <c r="P1" s="2">
         <v>2004</v>
       </c>
-      <c r="I1">
+      <c r="Q1" s="2">
         <v>2006</v>
       </c>
-      <c r="J1">
+      <c r="R1" s="2">
         <v>2008</v>
       </c>
-      <c r="K1">
+      <c r="S1" s="2">
         <v>2010</v>
       </c>
-      <c r="L1">
+      <c r="T1" s="2">
         <v>2012</v>
       </c>
-      <c r="M1">
+      <c r="U1" s="2">
         <v>2014</v>
       </c>
-      <c r="N1">
+      <c r="V1" s="2">
         <v>2016</v>
       </c>
-      <c r="O1">
+      <c r="W1" s="2">
         <v>2018</v>
       </c>
-      <c r="P1">
+      <c r="X1" s="2">
         <v>2021</v>
       </c>
-      <c r="Q1">
+      <c r="Y1" s="2">
         <v>2022</v>
       </c>
     </row>
-    <row r="2" spans="1:25">
-      <c r="A2">
+    <row r="2" spans="1:25" ht="15" thickBot="1">
+      <c r="A2" s="3">
         <v>-100</v>
       </c>
-      <c r="B2" t="s">
-        <v>0</v>
-      </c>
-      <c r="C2">
-        <v>0</v>
-      </c>
-      <c r="D2">
-        <v>0</v>
-      </c>
-      <c r="E2">
-        <v>0</v>
-      </c>
-      <c r="F2">
+      <c r="B2" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="4">
+        <v>0</v>
+      </c>
+      <c r="D2" s="4">
+        <v>0</v>
+      </c>
+      <c r="E2" s="4">
+        <v>0</v>
+      </c>
+      <c r="F2" s="4">
         <v>493</v>
       </c>
-      <c r="G2">
+      <c r="G2" s="4">
         <v>531</v>
       </c>
-      <c r="H2">
+      <c r="H2" s="4">
         <v>444</v>
       </c>
-      <c r="I2">
+      <c r="I2" s="4">
         <v>493</v>
       </c>
-      <c r="J2">
+      <c r="J2" s="4">
         <v>526</v>
       </c>
-      <c r="K2">
+      <c r="K2" s="4">
         <v>1015</v>
       </c>
-      <c r="L2">
+      <c r="L2" s="4">
         <v>475</v>
       </c>
-      <c r="M2">
+      <c r="M2" s="4">
         <v>961</v>
       </c>
-      <c r="N2">
+      <c r="N2" s="4">
         <v>940</v>
       </c>
-      <c r="O2">
+      <c r="O2" s="4">
         <v>1857</v>
       </c>
-      <c r="P2">
+      <c r="P2" s="4">
         <v>1906</v>
       </c>
-      <c r="Q2">
+      <c r="Q2" s="4">
         <v>2518</v>
       </c>
-      <c r="R2">
+      <c r="R2" s="4">
         <v>694</v>
       </c>
-      <c r="S2">
+      <c r="S2" s="4">
         <v>614</v>
       </c>
-      <c r="T2">
+      <c r="T2" s="4">
         <v>672</v>
       </c>
-      <c r="U2">
+      <c r="U2" s="4">
         <v>863</v>
       </c>
-      <c r="V2">
+      <c r="V2" s="4">
         <v>979</v>
       </c>
-      <c r="W2">
+      <c r="W2" s="4">
         <v>789</v>
       </c>
-      <c r="X2">
+      <c r="X2" s="4">
         <v>1315</v>
       </c>
-      <c r="Y2">
+      <c r="Y2" s="4">
         <v>1168</v>
       </c>
     </row>
-    <row r="3" spans="1:25">
-      <c r="A3">
+    <row r="3" spans="1:25" ht="15" thickBot="1">
+      <c r="A3" s="3">
         <v>-99</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B3" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C3">
+      <c r="C3" s="4">
         <v>4</v>
       </c>
-      <c r="D3">
+      <c r="D3" s="4">
         <v>6</v>
       </c>
-      <c r="E3">
+      <c r="E3" s="4">
         <v>2</v>
       </c>
-      <c r="F3">
+      <c r="F3" s="4">
         <v>5</v>
       </c>
-      <c r="G3">
+      <c r="G3" s="4">
         <v>3</v>
       </c>
-      <c r="H3">
+      <c r="H3" s="4">
         <v>1</v>
       </c>
-      <c r="I3">
+      <c r="I3" s="4">
         <v>4</v>
       </c>
-      <c r="J3">
+      <c r="J3" s="4">
         <v>3</v>
       </c>
-      <c r="K3">
+      <c r="K3" s="4">
         <v>8</v>
       </c>
-      <c r="L3">
+      <c r="L3" s="4">
         <v>12</v>
       </c>
-      <c r="M3">
+      <c r="M3" s="4">
         <v>10</v>
       </c>
-      <c r="N3">
+      <c r="N3" s="4">
         <v>20</v>
       </c>
-      <c r="O3">
+      <c r="O3" s="4">
         <v>1</v>
       </c>
-      <c r="P3">
+      <c r="P3" s="4">
         <v>1</v>
       </c>
-      <c r="Q3">
+      <c r="Q3" s="4">
         <v>1</v>
       </c>
-      <c r="R3">
+      <c r="R3" s="4">
         <v>2</v>
       </c>
-      <c r="S3">
+      <c r="S3" s="4">
         <v>4</v>
       </c>
-      <c r="T3">
+      <c r="T3" s="4">
         <v>2</v>
       </c>
-      <c r="U3">
+      <c r="U3" s="4">
         <v>3</v>
       </c>
-      <c r="V3">
+      <c r="V3" s="4">
         <v>1</v>
       </c>
-      <c r="W3">
+      <c r="W3" s="4">
         <v>1</v>
       </c>
-      <c r="X3">
-        <v>0</v>
-      </c>
-      <c r="Y3">
+      <c r="X3" s="4">
+        <v>0</v>
+      </c>
+      <c r="Y3" s="4">
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:25">
-      <c r="A4">
+    <row r="4" spans="1:25" ht="15" thickBot="1">
+      <c r="A4" s="3">
         <v>-98</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B4" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="C4">
+      <c r="C4" s="4">
         <v>23</v>
       </c>
-      <c r="D4">
+      <c r="D4" s="4">
         <v>26</v>
       </c>
-      <c r="E4">
+      <c r="E4" s="4">
         <v>24</v>
       </c>
-      <c r="F4">
+      <c r="F4" s="4">
         <v>19</v>
       </c>
-      <c r="G4">
+      <c r="G4" s="4">
         <v>26</v>
       </c>
-      <c r="H4">
+      <c r="H4" s="4">
         <v>26</v>
       </c>
-      <c r="I4">
+      <c r="I4" s="4">
         <v>24</v>
       </c>
-      <c r="J4">
+      <c r="J4" s="4">
         <v>23</v>
       </c>
-      <c r="K4">
+      <c r="K4" s="4">
         <v>53</v>
       </c>
-      <c r="L4">
+      <c r="L4" s="4">
         <v>64</v>
       </c>
-      <c r="M4">
+      <c r="M4" s="4">
         <v>43</v>
       </c>
-      <c r="N4">
+      <c r="N4" s="4">
         <v>53</v>
       </c>
-      <c r="O4">
+      <c r="O4" s="4">
         <v>9</v>
       </c>
-      <c r="P4">
+      <c r="P4" s="4">
         <v>11</v>
       </c>
-      <c r="Q4">
+      <c r="Q4" s="4">
         <v>23</v>
       </c>
-      <c r="R4">
+      <c r="R4" s="4">
         <v>19</v>
       </c>
-      <c r="S4">
+      <c r="S4" s="4">
         <v>8</v>
       </c>
-      <c r="T4">
+      <c r="T4" s="4">
         <v>15</v>
       </c>
-      <c r="U4">
+      <c r="U4" s="4">
         <v>17</v>
       </c>
-      <c r="V4">
+      <c r="V4" s="4">
         <v>15</v>
       </c>
-      <c r="W4">
+      <c r="W4" s="4">
         <v>13</v>
       </c>
-      <c r="X4">
-        <v>0</v>
-      </c>
-      <c r="Y4">
+      <c r="X4" s="4">
+        <v>0</v>
+      </c>
+      <c r="Y4" s="4">
         <v>25</v>
       </c>
     </row>
-    <row r="5" spans="1:25">
-      <c r="A5">
+    <row r="5" spans="1:25" ht="15" thickBot="1">
+      <c r="A5" s="3">
         <v>-97</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B5" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="C5">
-        <v>0</v>
-      </c>
-      <c r="D5">
-        <v>0</v>
-      </c>
-      <c r="E5">
-        <v>0</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
-      </c>
-      <c r="G5">
-        <v>0</v>
-      </c>
-      <c r="H5">
-        <v>0</v>
-      </c>
-      <c r="I5">
-        <v>0</v>
-      </c>
-      <c r="J5">
-        <v>0</v>
-      </c>
-      <c r="K5">
-        <v>0</v>
-      </c>
-      <c r="L5">
-        <v>0</v>
-      </c>
-      <c r="M5">
-        <v>0</v>
-      </c>
-      <c r="N5">
-        <v>0</v>
-      </c>
-      <c r="O5">
-        <v>0</v>
-      </c>
-      <c r="P5">
-        <v>0</v>
-      </c>
-      <c r="Q5">
-        <v>0</v>
-      </c>
-      <c r="R5">
-        <v>0</v>
-      </c>
-      <c r="S5">
-        <v>0</v>
-      </c>
-      <c r="T5">
-        <v>0</v>
-      </c>
-      <c r="U5">
-        <v>0</v>
-      </c>
-      <c r="V5">
-        <v>0</v>
-      </c>
-      <c r="W5">
-        <v>0</v>
-      </c>
-      <c r="X5">
+      <c r="C5" s="4">
+        <v>0</v>
+      </c>
+      <c r="D5" s="4">
+        <v>0</v>
+      </c>
+      <c r="E5" s="4">
+        <v>0</v>
+      </c>
+      <c r="F5" s="4">
+        <v>0</v>
+      </c>
+      <c r="G5" s="4">
+        <v>0</v>
+      </c>
+      <c r="H5" s="4">
+        <v>0</v>
+      </c>
+      <c r="I5" s="4">
+        <v>0</v>
+      </c>
+      <c r="J5" s="4">
+        <v>0</v>
+      </c>
+      <c r="K5" s="4">
+        <v>0</v>
+      </c>
+      <c r="L5" s="4">
+        <v>0</v>
+      </c>
+      <c r="M5" s="4">
+        <v>0</v>
+      </c>
+      <c r="N5" s="4">
+        <v>0</v>
+      </c>
+      <c r="O5" s="4">
+        <v>0</v>
+      </c>
+      <c r="P5" s="4">
+        <v>0</v>
+      </c>
+      <c r="Q5" s="4">
+        <v>0</v>
+      </c>
+      <c r="R5" s="4">
+        <v>0</v>
+      </c>
+      <c r="S5" s="4">
+        <v>0</v>
+      </c>
+      <c r="T5" s="4">
+        <v>0</v>
+      </c>
+      <c r="U5" s="4">
+        <v>0</v>
+      </c>
+      <c r="V5" s="4">
+        <v>0</v>
+      </c>
+      <c r="W5" s="4">
+        <v>0</v>
+      </c>
+      <c r="X5" s="4">
         <v>9</v>
       </c>
-      <c r="Y5">
+      <c r="Y5" s="4">
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="1:25">
-      <c r="A6">
+    <row r="6" spans="1:25" ht="15" thickBot="1">
+      <c r="A6" s="3">
         <v>1</v>
       </c>
-      <c r="B6" t="s">
+      <c r="B6" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="C6">
+      <c r="C6" s="4">
         <v>275</v>
       </c>
-      <c r="D6">
+      <c r="D6" s="4">
         <v>150</v>
       </c>
-      <c r="E6">
+      <c r="E6" s="4">
         <v>132</v>
       </c>
-      <c r="F6">
+      <c r="F6" s="4">
         <v>88</v>
       </c>
-      <c r="G6">
+      <c r="G6" s="4">
         <v>95</v>
       </c>
-      <c r="H6">
+      <c r="H6" s="4">
         <v>64</v>
       </c>
-      <c r="I6">
+      <c r="I6" s="4">
         <v>76</v>
       </c>
-      <c r="J6">
+      <c r="J6" s="4">
         <v>64</v>
       </c>
-      <c r="K6">
+      <c r="K6" s="4">
         <v>131</v>
       </c>
-      <c r="L6">
+      <c r="L6" s="4">
         <v>179</v>
       </c>
-      <c r="M6">
+      <c r="M6" s="4">
         <v>130</v>
       </c>
-      <c r="N6">
+      <c r="N6" s="4">
         <v>204</v>
       </c>
-      <c r="O6">
+      <c r="O6" s="4">
         <v>91</v>
       </c>
-      <c r="P6">
+      <c r="P6" s="4">
         <v>79</v>
       </c>
-      <c r="Q6">
+      <c r="Q6" s="4">
         <v>166</v>
       </c>
-      <c r="R6">
+      <c r="R6" s="4">
         <v>122</v>
       </c>
-      <c r="S6">
+      <c r="S6" s="4">
         <v>107</v>
       </c>
-      <c r="T6">
+      <c r="T6" s="4">
         <v>87</v>
       </c>
-      <c r="U6">
+      <c r="U6" s="4">
         <v>105</v>
       </c>
-      <c r="V6">
+      <c r="V6" s="4">
         <v>110</v>
       </c>
-      <c r="W6">
+      <c r="W6" s="4">
         <v>88</v>
       </c>
-      <c r="X6">
+      <c r="X6" s="4">
         <v>131</v>
       </c>
-      <c r="Y6">
+      <c r="Y6" s="4">
         <v>136</v>
       </c>
     </row>
-    <row r="7" spans="1:25">
-      <c r="A7">
+    <row r="7" spans="1:25" ht="15" thickBot="1">
+      <c r="A7" s="3">
         <v>2</v>
       </c>
-      <c r="B7" t="s">
+      <c r="B7" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="C7">
+      <c r="C7" s="4">
         <v>714</v>
       </c>
-      <c r="D7">
+      <c r="D7" s="4">
         <v>577</v>
       </c>
-      <c r="E7">
+      <c r="E7" s="4">
         <v>557</v>
       </c>
-      <c r="F7">
+      <c r="F7" s="4">
         <v>318</v>
       </c>
-      <c r="G7">
+      <c r="G7" s="4">
         <v>305</v>
       </c>
-      <c r="H7">
+      <c r="H7" s="4">
         <v>301</v>
       </c>
-      <c r="I7">
+      <c r="I7" s="4">
         <v>344</v>
       </c>
-      <c r="J7">
+      <c r="J7" s="4">
         <v>318</v>
       </c>
-      <c r="K7">
+      <c r="K7" s="4">
         <v>540</v>
       </c>
-      <c r="L7">
+      <c r="L7" s="4">
         <v>725</v>
       </c>
-      <c r="M7">
+      <c r="M7" s="4">
         <v>509</v>
       </c>
-      <c r="N7">
+      <c r="N7" s="4">
         <v>531</v>
       </c>
-      <c r="O7">
+      <c r="O7" s="4">
         <v>257</v>
       </c>
-      <c r="P7">
+      <c r="P7" s="4">
         <v>257</v>
       </c>
-      <c r="Q7">
+      <c r="Q7" s="4">
         <v>538</v>
       </c>
-      <c r="R7">
+      <c r="R7" s="4">
         <v>359</v>
       </c>
-      <c r="S7">
+      <c r="S7" s="4">
         <v>404</v>
       </c>
-      <c r="T7">
+      <c r="T7" s="4">
         <v>313</v>
       </c>
-      <c r="U7">
+      <c r="U7" s="4">
         <v>410</v>
       </c>
-      <c r="V7">
+      <c r="V7" s="4">
         <v>405</v>
       </c>
-      <c r="W7">
+      <c r="W7" s="4">
         <v>310</v>
       </c>
-      <c r="X7">
+      <c r="X7" s="4">
         <v>410</v>
       </c>
-      <c r="Y7">
+      <c r="Y7" s="4">
         <v>437</v>
       </c>
     </row>
-    <row r="8" spans="1:25">
-      <c r="A8">
+    <row r="8" spans="1:25" ht="15" thickBot="1">
+      <c r="A8" s="3">
         <v>3</v>
       </c>
-      <c r="B8" t="s">
+      <c r="B8" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="C8">
+      <c r="C8" s="4">
         <v>422</v>
       </c>
-      <c r="D8">
+      <c r="D8" s="4">
         <v>574</v>
       </c>
-      <c r="E8">
+      <c r="E8" s="4">
         <v>576</v>
       </c>
-      <c r="F8">
+      <c r="F8" s="4">
         <v>399</v>
       </c>
-      <c r="G8">
+      <c r="G8" s="4">
         <v>413</v>
       </c>
-      <c r="H8">
+      <c r="H8" s="4">
         <v>405</v>
       </c>
-      <c r="I8">
+      <c r="I8" s="4">
         <v>405</v>
       </c>
-      <c r="J8">
+      <c r="J8" s="4">
         <v>491</v>
       </c>
-      <c r="K8">
+      <c r="K8" s="4">
         <v>896</v>
       </c>
-      <c r="L8">
+      <c r="L8" s="4">
         <v>1034</v>
       </c>
-      <c r="M8">
+      <c r="M8" s="4">
         <v>836</v>
       </c>
-      <c r="N8">
+      <c r="N8" s="4">
         <v>731</v>
       </c>
-      <c r="O8">
+      <c r="O8" s="4">
         <v>382</v>
       </c>
-      <c r="P8">
+      <c r="P8" s="4">
         <v>394</v>
       </c>
-      <c r="Q8">
+      <c r="Q8" s="4">
         <v>918</v>
       </c>
-      <c r="R8">
+      <c r="R8" s="4">
         <v>587</v>
       </c>
-      <c r="S8">
+      <c r="S8" s="4">
         <v>610</v>
       </c>
-      <c r="T8">
+      <c r="T8" s="4">
         <v>636</v>
       </c>
-      <c r="U8">
+      <c r="U8" s="4">
         <v>785</v>
       </c>
-      <c r="V8">
+      <c r="V8" s="4">
         <v>853</v>
       </c>
-      <c r="W8">
+      <c r="W8" s="4">
         <v>714</v>
       </c>
-      <c r="X8">
+      <c r="X8" s="4">
         <v>1137</v>
       </c>
-      <c r="Y8">
+      <c r="Y8" s="4">
         <v>1000</v>
       </c>
     </row>
     <row r="9" spans="1:25">
-      <c r="A9">
+      <c r="A9" s="5">
         <v>4</v>
       </c>
-      <c r="B9" t="s">
+      <c r="B9" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="C9">
+      <c r="C9" s="6">
         <v>92</v>
       </c>
-      <c r="D9">
+      <c r="D9" s="6">
         <v>201</v>
       </c>
-      <c r="E9">
+      <c r="E9" s="6">
         <v>179</v>
       </c>
-      <c r="F9">
+      <c r="F9" s="6">
         <v>159</v>
       </c>
-      <c r="G9">
+      <c r="G9" s="6">
         <v>164</v>
       </c>
-      <c r="H9">
+      <c r="H9" s="6">
         <v>131</v>
       </c>
-      <c r="I9">
+      <c r="I9" s="6">
         <v>171</v>
       </c>
-      <c r="J9">
+      <c r="J9" s="6">
         <v>181</v>
       </c>
-      <c r="K9">
+      <c r="K9" s="6">
         <v>349</v>
       </c>
-      <c r="L9">
+      <c r="L9" s="6">
         <v>415</v>
       </c>
-      <c r="M9">
+      <c r="M9" s="6">
         <v>343</v>
       </c>
-      <c r="N9">
+      <c r="N9" s="6">
         <v>338</v>
       </c>
-      <c r="O9">
+      <c r="O9" s="6">
         <v>168</v>
       </c>
-      <c r="P9">
+      <c r="P9" s="6">
         <v>164</v>
       </c>
-      <c r="Q9">
+      <c r="Q9" s="6">
         <v>346</v>
       </c>
-      <c r="R9">
+      <c r="R9" s="6">
         <v>240</v>
       </c>
-      <c r="S9">
+      <c r="S9" s="6">
         <v>297</v>
       </c>
-      <c r="T9">
+      <c r="T9" s="6">
         <v>249</v>
       </c>
-      <c r="U9">
+      <c r="U9" s="6">
         <v>355</v>
       </c>
-      <c r="V9">
+      <c r="V9" s="6">
         <v>504</v>
       </c>
-      <c r="W9">
+      <c r="W9" s="6">
         <v>433</v>
       </c>
-      <c r="X9">
+      <c r="X9" s="6">
         <v>1030</v>
       </c>
-      <c r="Y9">
+      <c r="Y9" s="6">
         <v>775</v>
       </c>
     </row>
